--- a/excelfiles/Binomialansatz.xlsx
+++ b/excelfiles/Binomialansatz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\medusa\projekte$\WWT_Department\Projects\FlexTreat\Work-packages\AP3\3_2_1_Validierungsleitfaden\LRV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wseis\Documents\github-repos\Logremoval\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
